--- a/traits.xlsx
+++ b/traits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gh13047/repo/opengwas-sibgwas-import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35641B7-83D3-E247-BFD5-E1C7F67EE469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CCC911-A9A8-E843-AA4B-73E18F7991CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{C8BF161C-5675-354A-8FF2-7C6B374B8307}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
   <si>
     <t>Height</t>
   </si>
@@ -283,6 +283,15 @@
   </si>
   <si>
     <t>Years of schooling</t>
+  </si>
+  <si>
+    <t>CRP</t>
+  </si>
+  <si>
+    <t>C-reactive protein</t>
+  </si>
+  <si>
+    <t>EFO:0004458</t>
   </si>
 </sst>
 </file>
@@ -634,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBCDB86-EB4A-BF45-9784-8680EF9AF8C4}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -995,6 +1004,20 @@
         <v>76</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
